--- a/Tables/Fig35_Table_Projected_LU.xlsx
+++ b/Tables/Fig35_Table_Projected_LU.xlsx
@@ -96,28 +96,36 @@
     <t>Baltimore City</t>
   </si>
   <si>
-    <t>Impervious Roads</t>
-  </si>
-  <si>
-    <t>Impervious Non-Roads</t>
-  </si>
-  <si>
-    <t>Tree Canopy Over Impervious</t>
+    <t>Impervious
+Roads</t>
+  </si>
+  <si>
+    <t>Impervious
+Non-Roads</t>
+  </si>
+  <si>
+    <t>Tree Canopy
+Over
+Impervious</t>
   </si>
   <si>
     <t>Turf Grass</t>
   </si>
   <si>
-    <t>Tree Canopy over Turf Grass</t>
+    <t>Tree Canopy
+over Turf
+Grass</t>
   </si>
   <si>
     <t>Forest</t>
   </si>
   <si>
-    <t>Wetlands (Other)</t>
-  </si>
-  <si>
-    <t>Wetlands (Floodplain)</t>
+    <t>Wetlands
+(Other)</t>
+  </si>
+  <si>
+    <t>Wetlands
+(Floodplain)</t>
   </si>
   <si>
     <t>Mixed Open</t>
@@ -3208,10 +3216,10 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>1498.9165000000096</v>
+        <v>4378.526799999998</v>
       </c>
     </row>
     <row r="9">
@@ -3219,10 +3227,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>4378.526799999998</v>
+        <v>1498.9165000000096</v>
       </c>
     </row>
     <row r="10">
@@ -3329,10 +3337,10 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" t="n">
-        <v>60.439300000001026</v>
+        <v>405.1715999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3340,10 +3348,10 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" t="n">
-        <v>405.1715999999999</v>
+        <v>60.439300000001026</v>
       </c>
     </row>
     <row r="21">
@@ -3450,10 +3458,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" t="n">
-        <v>563.6491999999998</v>
+        <v>1920.5349000000042</v>
       </c>
     </row>
     <row r="31">
@@ -3461,10 +3469,10 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>1920.5349000000042</v>
+        <v>563.6491999999998</v>
       </c>
     </row>
     <row r="32">
@@ -3571,10 +3579,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C41" t="n">
-        <v>414.71030000000997</v>
+        <v>3379.5023999999903</v>
       </c>
     </row>
     <row r="42">
@@ -3582,10 +3590,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C42" t="n">
-        <v>3379.5023999999903</v>
+        <v>414.71030000000997</v>
       </c>
     </row>
     <row r="43">
@@ -3692,10 +3700,10 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C52" t="n">
-        <v>211.66100000000102</v>
+        <v>1213.99970000002</v>
       </c>
     </row>
     <row r="53">
@@ -3703,10 +3711,10 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C53" t="n">
-        <v>1213.99970000002</v>
+        <v>211.66100000000102</v>
       </c>
     </row>
     <row r="54">
@@ -3813,10 +3821,10 @@
         <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C63" t="n">
-        <v>200.54460000001006</v>
+        <v>779.6855999999907</v>
       </c>
     </row>
     <row r="64">
@@ -3824,10 +3832,10 @@
         <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C64" t="n">
-        <v>779.6855999999907</v>
+        <v>200.54460000001006</v>
       </c>
     </row>
     <row r="65">

--- a/Tables/Fig35_Table_Projected_LU.xlsx
+++ b/Tables/Fig35_Table_Projected_LU.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbouf\Documents\UVM\Maryland_Technical_Forest\MD_Forest\Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0E40AD-BA0C-4881-98F5-66356F5ECD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="county" r:id="rId3" sheetId="1"/>
-    <sheet name="region" r:id="rId4" sheetId="2"/>
+    <sheet name="county" sheetId="1" r:id="rId1"/>
+    <sheet name="region" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -161,11 +169,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -177,10 +192,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,3690 +203,4023 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>52.528999999999996</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>110.15340000000015</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>25.168400000010024</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>217.72429999999986</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="n">
-        <v>129.8811999999998</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>129.88119999999981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>-430.64830000000075</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>-0.23939999999900863</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="n">
-        <v>-0.513499999999965</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9">
+        <v>-0.51349999999996498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>15.961199999999735</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="n">
-        <v>-31.40459999999075</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>-31.404599999990751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="n">
-        <v>-88.61130000010235</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>-88.611300000102347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="n">
-        <v>587.2291999999907</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>587.22919999999067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="n">
-        <v>1940.5835999999</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>1940.5835999998999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="n">
-        <v>769.5391000000109</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>769.53910000001088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="n">
-        <v>4122.834699999999</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>4122.8346999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2034.7114999999976</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="n">
-        <v>-7435.861000000004</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>-7435.8610000000044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>-105.34259999999995</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="n">
-        <v>-609.6516000000092</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20">
+        <v>-609.65160000000924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="n">
-        <v>176.0916999999008</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21">
+        <v>176.09169999990081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="n">
-        <v>-757.7633999999998</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22">
+        <v>-757.76339999999982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="n">
-        <v>-722.3724999999995</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="C23">
+        <v>-722.37249999999949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="n">
-        <v>289.8499000001011</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="C24">
+        <v>289.84990000010112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1145.920700000097</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>160.89419999999973</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>2213.1880999999994</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="n">
-        <v>674.218200000003</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="C28">
+        <v>674.21820000000298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>-2602.2724999990023</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>-56.218399999999974</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>-15.200900000000047</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" t="n">
-        <v>218.7469999999994</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="C32">
+        <v>218.74699999999939</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="C33" t="n">
-        <v>-987.5250000001033</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33">
+        <v>-987.52500000010332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-1041.6019000000997</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" t="n">
-        <v>46.73059999999987</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="C35">
+        <v>46.730599999999868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>152.1212000000005</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>22.445500000000038</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>203.44220000000132</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>131.20259999998962</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" t="n">
-        <v>-442.9082999999955</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="C40">
+        <v>-442.90829999999551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
       </c>
-      <c r="C41" t="n">
-        <v>-1.199700000000007</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="C41">
+        <v>-1.1997000000000071</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>-27.394199999999728</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C43" t="n">
-        <v>16.03070000000025</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C43">
+        <v>16.030700000000252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>-60.981100000099104</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>-39.490699999990284</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>106.31800000001022</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>196.24929999998994</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
       </c>
-      <c r="C48" t="n">
-        <v>26.64400000000103</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="C48">
+        <v>26.644000000001029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>30</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1351.4930000000022</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>31</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>116.03890000001002</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>-198.06039999990026</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>-102.72830000000249</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
       </c>
-      <c r="C53" t="n">
-        <v>-34.19949999999062</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="C53">
+        <v>-34.199499999990621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>44.159600000000864</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>-1361.1331000001082</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>-144.78290000000925</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>60.903299999999945</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>28</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>213.16240000000107</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
       <c r="B59" t="s">
         <v>29</v>
       </c>
-      <c r="C59" t="n">
-        <v>48.86799999999994</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="C59">
+        <v>48.867999999999938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>30</v>
       </c>
-      <c r="C60" t="n">
-        <v>684.7081999998991</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="C60">
+        <v>684.70819999989908</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" t="n">
-        <v>93.45920000000115</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="C61">
+        <v>93.459200000001147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>32</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>-289.40899999999965</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>33</v>
       </c>
-      <c r="C63" t="n">
-        <v>-5.787299999999959</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="C63">
+        <v>-5.7872999999999593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>-10.160599999999704</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>35</v>
       </c>
-      <c r="C65" t="n">
-        <v>74.65120000000024</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="C65">
+        <v>74.651200000000244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
       </c>
-      <c r="C66" t="n">
-        <v>-485.2764999998981</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66">
+        <v>-485.27649999989808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
       </c>
-      <c r="C67" t="n">
-        <v>-385.1189999999988</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="C67">
+        <v>-385.11899999999878</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>226.36939999999004</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
       <c r="B69" t="s">
         <v>28</v>
       </c>
-      <c r="C69" t="n">
-        <v>823.3297000001003</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="C69">
+        <v>823.32970000010027</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
       </c>
-      <c r="C70" t="n">
-        <v>70.58960000000002</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="C70">
+        <v>70.589600000000019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
       <c r="B71" t="s">
         <v>30</v>
       </c>
-      <c r="C71" t="n">
-        <v>3295.239200000102</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="C71">
+        <v>3295.2392000001018</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
       <c r="B72" t="s">
         <v>31</v>
       </c>
-      <c r="C72" t="n">
-        <v>712.6081999999997</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="C72">
+        <v>712.60819999999967</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
       <c r="B73" t="s">
         <v>32</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>-2146.7899000000034</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
       <c r="B74" t="s">
         <v>33</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>-24.252299999999877</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>9</v>
       </c>
       <c r="B75" t="s">
         <v>34</v>
       </c>
-      <c r="C75" t="n">
-        <v>-44.93509999998969</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="C75">
+        <v>-44.935099999989689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>9</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>114.71470000009867</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
       <c r="B77" t="s">
         <v>36</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>-1963.2911999999997</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>9</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>-1063.5838999999032</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
       </c>
-      <c r="C79" t="n">
-        <v>478.4249</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="C79">
+        <v>478.42489999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
       <c r="B80" t="s">
         <v>28</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>1625.8542999999008</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>29</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>237.0738000000099</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
       </c>
-      <c r="C82" t="n">
-        <v>5187.949000000099</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="C82">
+        <v>5187.9490000000987</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
       <c r="B83" t="s">
         <v>31</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>2239.7476000000006</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>32</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>-6148.50450000001</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
       <c r="B85" t="s">
         <v>33</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>-173.35659999999962</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
       <c r="B86" t="s">
         <v>34</v>
       </c>
-      <c r="C86" t="n">
-        <v>-971.6514000000006</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="C86">
+        <v>-971.65140000000065</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
       <c r="B87" t="s">
         <v>35</v>
       </c>
-      <c r="C87" t="n">
-        <v>94.14960000000065</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="C87">
+        <v>94.149600000000646</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
       <c r="B88" t="s">
         <v>36</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>-1601.4574999999968</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
       </c>
-      <c r="C89" t="n">
-        <v>-968.2303999999003</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="C89">
+        <v>-968.23039999990033</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
       <c r="B90" t="s">
         <v>27</v>
       </c>
-      <c r="C90" t="n">
-        <v>180.34959999999</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="C90">
+        <v>180.34959999999001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
       <c r="B91" t="s">
         <v>28</v>
       </c>
-      <c r="C91" t="n">
-        <v>333.4250999999995</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="C91">
+        <v>333.42509999999947</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
       <c r="B92" t="s">
         <v>29</v>
       </c>
-      <c r="C92" t="n">
-        <v>30.47210000000001</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="C92">
+        <v>30.472100000000012</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>1940.7436999999009</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
       <c r="B94" t="s">
         <v>31</v>
       </c>
-      <c r="C94" t="n">
-        <v>183.95560000001</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="C94">
+        <v>183.95560000001001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
       <c r="B95" t="s">
         <v>32</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-469.94689999999537</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
       <c r="B96" t="s">
         <v>33</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-87.81099999989965</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
       <c r="B97" t="s">
         <v>34</v>
       </c>
-      <c r="C97" t="n">
-        <v>-10.22050000000013</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="C97">
+        <v>-10.220500000000129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
       <c r="B98" t="s">
         <v>35</v>
       </c>
-      <c r="C98" t="n">
-        <v>90.58259999999973</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="C98">
+        <v>90.582599999999729</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
       <c r="B99" t="s">
         <v>36</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-1967.4823000000033</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-224.06789999989996</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>271.58889999999974</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>12</v>
       </c>
       <c r="B102" t="s">
         <v>28</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>1002.9616999999998</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
       <c r="B103" t="s">
         <v>29</v>
       </c>
-      <c r="C103" t="n">
-        <v>144.4031</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="C103">
+        <v>144.40309999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
       <c r="B104" t="s">
         <v>30</v>
       </c>
-      <c r="C104" t="n">
-        <v>4202.6685</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="C104">
+        <v>4202.6684999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>12</v>
       </c>
       <c r="B105" t="s">
         <v>31</v>
       </c>
-      <c r="C105" t="n">
-        <v>434.3662000000004</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="C105">
+        <v>434.36620000000039</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>12</v>
       </c>
       <c r="B106" t="s">
         <v>32</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-1285.6420999999973</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>12</v>
       </c>
       <c r="B107" t="s">
         <v>33</v>
       </c>
-      <c r="C107" t="n">
-        <v>-42.50260000000981</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="C107">
+        <v>-42.502600000009807</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>12</v>
       </c>
       <c r="B108" t="s">
         <v>34</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-14.770600000000059</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>12</v>
       </c>
       <c r="B109" t="s">
         <v>35</v>
       </c>
-      <c r="C109" t="n">
-        <v>287.4151999998994</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="C109">
+        <v>287.41519999989941</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>12</v>
       </c>
       <c r="B110" t="s">
         <v>36</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-2530.350800000102</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>12</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
       </c>
-      <c r="C111" t="n">
-        <v>-2470.137600000002</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="C111">
+        <v>-2470.1376000000018</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>13</v>
       </c>
       <c r="B112" t="s">
         <v>27</v>
       </c>
-      <c r="C112" t="n">
-        <v>299.4914999999901</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="C112">
+        <v>299.49149999999008</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>13</v>
       </c>
       <c r="B113" t="s">
         <v>28</v>
       </c>
-      <c r="C113" t="n">
-        <v>534.9344999999994</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="C113">
+        <v>534.93449999999939</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>13</v>
       </c>
       <c r="B114" t="s">
         <v>29</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>153.37310000000002</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>13</v>
       </c>
       <c r="B115" t="s">
         <v>30</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>1188.9948000000986</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
       <c r="B116" t="s">
         <v>31</v>
       </c>
-      <c r="C116" t="n">
-        <v>478.8230999999905</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="C116">
+        <v>478.82309999999052</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>13</v>
       </c>
       <c r="B117" t="s">
         <v>32</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-1597.2571000009775</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>13</v>
       </c>
       <c r="B118" t="s">
         <v>33</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-17.845499999990352</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>13</v>
       </c>
       <c r="B119" t="s">
         <v>34</v>
       </c>
-      <c r="C119" t="n">
-        <v>-30.74820000001</v>
-      </c>
-    </row>
-    <row r="120">
+      <c r="C119">
+        <v>-30.748200000010002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>13</v>
       </c>
       <c r="B120" t="s">
         <v>35</v>
       </c>
-      <c r="C120" t="n">
-        <v>125.0830999999016</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="C120">
+        <v>125.08309999990161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>13</v>
       </c>
       <c r="B121" t="s">
         <v>36</v>
       </c>
-      <c r="C121" t="n">
-        <v>-271.2376000000004</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="C121">
+        <v>-271.23760000000038</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>13</v>
       </c>
       <c r="B122" t="s">
         <v>37</v>
       </c>
-      <c r="C122" t="n">
-        <v>-863.6118999999962</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="C122">
+        <v>-863.61189999999624</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>14</v>
       </c>
       <c r="B123" t="s">
         <v>27</v>
       </c>
-      <c r="C123" t="n">
-        <v>514.3481000000002</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="C123">
+        <v>514.34810000000016</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>14</v>
       </c>
       <c r="B124" t="s">
         <v>28</v>
       </c>
-      <c r="C124" t="n">
-        <v>2265.229900000002</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="C124">
+        <v>2265.2299000000021</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>14</v>
       </c>
       <c r="B125" t="s">
         <v>29</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>353.88700000000017</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>14</v>
       </c>
       <c r="B126" t="s">
         <v>30</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>3152.2320000001055</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>14</v>
       </c>
       <c r="B127" t="s">
         <v>31</v>
       </c>
-      <c r="C127" t="n">
-        <v>1152.8575</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="C127">
+        <v>1152.8575000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>14</v>
       </c>
       <c r="B128" t="s">
         <v>32</v>
       </c>
-      <c r="C128" t="n">
-        <v>-4450.651599998993</v>
-      </c>
-    </row>
-    <row r="129">
+      <c r="C128">
+        <v>-4450.6515999989933</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>14</v>
       </c>
       <c r="B129" t="s">
         <v>33</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-61.179499999990185</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
       <c r="B130" t="s">
         <v>34</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-57.987799999989875</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
       <c r="B131" t="s">
         <v>35</v>
       </c>
-      <c r="C131" t="n">
-        <v>575.7327999999998</v>
-      </c>
-    </row>
-    <row r="132">
+      <c r="C131">
+        <v>575.73279999999977</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
       <c r="B132" t="s">
         <v>36</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-1991.7100999999966</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>14</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-1452.7579000000005</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>15</v>
       </c>
       <c r="B134" t="s">
         <v>27</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>159.23050000000967</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>15</v>
       </c>
       <c r="B135" t="s">
         <v>28</v>
       </c>
-      <c r="C135" t="n">
-        <v>601.715900000001</v>
-      </c>
-    </row>
-    <row r="136">
+      <c r="C135">
+        <v>601.71590000000106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>15</v>
       </c>
       <c r="B136" t="s">
         <v>29</v>
       </c>
-      <c r="C136" t="n">
-        <v>77.59399999999982</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="C136">
+        <v>77.593999999999824</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>15</v>
       </c>
       <c r="B137" t="s">
         <v>30</v>
       </c>
-      <c r="C137" t="n">
-        <v>953.6354000000065</v>
-      </c>
-    </row>
-    <row r="138">
+      <c r="C137">
+        <v>953.63540000000648</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>15</v>
       </c>
       <c r="B138" t="s">
         <v>31</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>377.28980000000047</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>15</v>
       </c>
       <c r="B139" t="s">
         <v>32</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>-1332.9588999999978</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>15</v>
       </c>
       <c r="B140" t="s">
         <v>33</v>
       </c>
-      <c r="C140" t="n">
-        <v>-49.42880000000014</v>
-      </c>
-    </row>
-    <row r="141">
+      <c r="C140">
+        <v>-49.428800000000138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>15</v>
       </c>
       <c r="B141" t="s">
         <v>34</v>
       </c>
-      <c r="C141" t="n">
-        <v>-43.37459999999987</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="C141">
+        <v>-43.374599999999873</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>15</v>
       </c>
       <c r="B142" t="s">
         <v>35</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>113.07340000000113</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>15</v>
       </c>
       <c r="B143" t="s">
         <v>36</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-401.72659999999996</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>15</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-455.05019999989963</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>16</v>
       </c>
       <c r="B145" t="s">
         <v>27</v>
       </c>
-      <c r="C145" t="n">
-        <v>53.39690000001019</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="C145">
+        <v>53.396900000010191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>16</v>
       </c>
       <c r="B146" t="s">
         <v>28</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>116.26319999999987</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>16</v>
       </c>
       <c r="B147" t="s">
         <v>29</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>11.72990000000101</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>16</v>
       </c>
       <c r="B148" t="s">
         <v>30</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>381.34230000000025</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>16</v>
       </c>
       <c r="B149" t="s">
         <v>31</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>30.29320000000007</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>16</v>
       </c>
       <c r="B150" t="s">
         <v>32</v>
       </c>
-      <c r="C150" t="n">
-        <v>-78.73139999999694</v>
-      </c>
-    </row>
-    <row r="151">
+      <c r="C150">
+        <v>-78.731399999996938</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>16</v>
       </c>
       <c r="B151" t="s">
         <v>33</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-12.26699999999073</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>16</v>
       </c>
       <c r="B152" t="s">
         <v>34</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-10.552700000000186</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>16</v>
       </c>
       <c r="B153" t="s">
         <v>35</v>
       </c>
-      <c r="C153" t="n">
-        <v>51.20100000000002</v>
-      </c>
-    </row>
-    <row r="154">
+      <c r="C153">
+        <v>51.201000000000022</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>16</v>
       </c>
       <c r="B154" t="s">
         <v>36</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-490.94330000010086</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>16</v>
       </c>
       <c r="B155" t="s">
         <v>37</v>
       </c>
-      <c r="C155" t="n">
-        <v>-51.73259999999027</v>
-      </c>
-    </row>
-    <row r="156">
+      <c r="C155">
+        <v>-51.732599999990271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>17</v>
       </c>
       <c r="B156" t="s">
         <v>27</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>263.15779999998995</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>17</v>
       </c>
       <c r="B157" t="s">
         <v>28</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>1109.8011999998998</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>17</v>
       </c>
       <c r="B158" t="s">
         <v>29</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>338.17139999999927</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>17</v>
       </c>
       <c r="B159" t="s">
         <v>30</v>
       </c>
-      <c r="C159" t="n">
-        <v>2899.8439</v>
-      </c>
-    </row>
-    <row r="160">
+      <c r="C159">
+        <v>2899.8438999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>17</v>
       </c>
       <c r="B160" t="s">
         <v>31</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>695.9210000000021</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>17</v>
       </c>
       <c r="B161" t="s">
         <v>32</v>
       </c>
-      <c r="C161" t="n">
-        <v>-2397.032000000094</v>
-      </c>
-    </row>
-    <row r="162">
+      <c r="C161">
+        <v>-2397.0320000000938</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>17</v>
       </c>
       <c r="B162" t="s">
         <v>33</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-103.07159999999931</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>17</v>
       </c>
       <c r="B163" t="s">
         <v>34</v>
       </c>
-      <c r="C163" t="n">
-        <v>-82.87249999999995</v>
-      </c>
-    </row>
-    <row r="164">
+      <c r="C163">
+        <v>-82.872499999999945</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>17</v>
       </c>
       <c r="B164" t="s">
         <v>35</v>
       </c>
-      <c r="C164" t="n">
-        <v>281.2040999999008</v>
-      </c>
-    </row>
-    <row r="165">
+      <c r="C164">
+        <v>281.20409999990079</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>17</v>
       </c>
       <c r="B165" t="s">
         <v>36</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-1355.313100000003</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>17</v>
       </c>
       <c r="B166" t="s">
         <v>37</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-1649.8112999999976</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>18</v>
       </c>
       <c r="B167" t="s">
         <v>27</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>208.72719999999936</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>18</v>
       </c>
       <c r="B168" t="s">
         <v>28</v>
       </c>
-      <c r="C168" t="n">
-        <v>694.9468000000998</v>
-      </c>
-    </row>
-    <row r="169">
+      <c r="C168">
+        <v>694.94680000009976</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>18</v>
       </c>
       <c r="B169" t="s">
         <v>29</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>169.20889999999963</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>18</v>
       </c>
       <c r="B170" t="s">
         <v>30</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>1837.0167999999976</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>18</v>
       </c>
       <c r="B171" t="s">
         <v>31</v>
       </c>
-      <c r="C171" t="n">
-        <v>836.2382999999973</v>
-      </c>
-    </row>
-    <row r="172">
+      <c r="C171">
+        <v>836.23829999999725</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>18</v>
       </c>
       <c r="B172" t="s">
         <v>32</v>
       </c>
-      <c r="C172" t="n">
-        <v>-2662.897299999997</v>
-      </c>
-    </row>
-    <row r="173">
+      <c r="C172">
+        <v>-2662.8972999999969</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>18</v>
       </c>
       <c r="B173" t="s">
         <v>33</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-42.271600000000035</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>18</v>
       </c>
       <c r="B174" t="s">
         <v>34</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-269.67229999990013</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>18</v>
       </c>
       <c r="B175" t="s">
         <v>35</v>
       </c>
-      <c r="C175" t="n">
-        <v>65.04409999999916</v>
-      </c>
-    </row>
-    <row r="176">
+      <c r="C175">
+        <v>65.044099999999162</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>18</v>
       </c>
       <c r="B176" t="s">
         <v>36</v>
       </c>
-      <c r="C176" t="n">
-        <v>-453.7225000000017</v>
-      </c>
-    </row>
-    <row r="177">
+      <c r="C176">
+        <v>-453.72250000000167</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>18</v>
       </c>
       <c r="B177" t="s">
         <v>37</v>
       </c>
-      <c r="C177" t="n">
-        <v>-382.6175999999896</v>
-      </c>
-    </row>
-    <row r="178">
+      <c r="C177">
+        <v>-382.61759999998958</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>19</v>
       </c>
       <c r="B178" t="s">
         <v>27</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>117.3112999999903</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>19</v>
       </c>
       <c r="B179" t="s">
         <v>28</v>
       </c>
-      <c r="C179" t="n">
-        <v>162.9403000000002</v>
-      </c>
-    </row>
-    <row r="180">
+      <c r="C179">
+        <v>162.94030000000021</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>19</v>
       </c>
       <c r="B180" t="s">
         <v>29</v>
       </c>
-      <c r="C180" t="n">
-        <v>16.94409999999897</v>
-      </c>
-    </row>
-    <row r="181">
+      <c r="C180">
+        <v>16.944099999998969</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>19</v>
       </c>
       <c r="B181" t="s">
         <v>30</v>
       </c>
-      <c r="C181" t="n">
-        <v>987.5802000000003</v>
-      </c>
-    </row>
-    <row r="182">
+      <c r="C181">
+        <v>987.58020000000033</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>19</v>
       </c>
       <c r="B182" t="s">
         <v>31</v>
       </c>
-      <c r="C182" t="n">
-        <v>84.35440000000017</v>
-      </c>
-    </row>
-    <row r="183">
+      <c r="C182">
+        <v>84.354400000000169</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>19</v>
       </c>
       <c r="B183" t="s">
         <v>32</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-187.61989999999787</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>19</v>
       </c>
       <c r="B184" t="s">
         <v>33</v>
       </c>
-      <c r="C184" t="n">
-        <v>-50.32490000010148</v>
-      </c>
-    </row>
-    <row r="185">
+      <c r="C184">
+        <v>-50.324900000101479</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>19</v>
       </c>
       <c r="B185" t="s">
         <v>34</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-27.097799999899507</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>19</v>
       </c>
       <c r="B186" t="s">
         <v>35</v>
       </c>
-      <c r="C186" t="n">
-        <v>74.04909999990014</v>
-      </c>
-    </row>
-    <row r="187">
+      <c r="C186">
+        <v>74.049099999900136</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>19</v>
       </c>
       <c r="B187" t="s">
         <v>36</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-1043.905099999989</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>19</v>
       </c>
       <c r="B188" t="s">
         <v>37</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-134.23199999999997</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>20</v>
       </c>
       <c r="B189" t="s">
         <v>27</v>
       </c>
-      <c r="C189" t="n">
-        <v>320.3584999999998</v>
-      </c>
-    </row>
-    <row r="190">
+      <c r="C189">
+        <v>320.35849999999982</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>20</v>
       </c>
       <c r="B190" t="s">
         <v>28</v>
       </c>
-      <c r="C190" t="n">
-        <v>748.4693000000007</v>
-      </c>
-    </row>
-    <row r="191">
+      <c r="C190">
+        <v>748.46930000000066</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>20</v>
       </c>
       <c r="B191" t="s">
         <v>29</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>155.19100000000003</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>20</v>
       </c>
       <c r="B192" t="s">
         <v>30</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>2858.195100000099</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>20</v>
       </c>
       <c r="B193" t="s">
         <v>31</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>1008.5522000000001</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>20</v>
       </c>
       <c r="B194" t="s">
         <v>32</v>
       </c>
-      <c r="C194" t="n">
-        <v>-2931.987500000003</v>
-      </c>
-    </row>
-    <row r="195">
+      <c r="C194">
+        <v>-2931.9875000000029</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>20</v>
       </c>
       <c r="B195" t="s">
         <v>33</v>
       </c>
-      <c r="C195" t="n">
-        <v>-76.39319999999952</v>
-      </c>
-    </row>
-    <row r="196">
+      <c r="C195">
+        <v>-76.393199999999524</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>20</v>
       </c>
       <c r="B196" t="s">
         <v>34</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-243.7538999999997</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>20</v>
       </c>
       <c r="B197" t="s">
         <v>35</v>
       </c>
-      <c r="C197" t="n">
-        <v>74.1257000000096</v>
-      </c>
-    </row>
-    <row r="198">
+      <c r="C197">
+        <v>74.125700000009601</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>20</v>
       </c>
       <c r="B198" t="s">
         <v>36</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-1324.9976000001006</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>20</v>
       </c>
       <c r="B199" t="s">
         <v>37</v>
       </c>
-      <c r="C199" t="n">
-        <v>-587.7598999999991</v>
-      </c>
-    </row>
-    <row r="200">
+      <c r="C199">
+        <v>-587.75989999999911</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>21</v>
       </c>
       <c r="B200" t="s">
         <v>27</v>
       </c>
-      <c r="C200" t="n">
-        <v>47.30089999999905</v>
-      </c>
-    </row>
-    <row r="201">
+      <c r="C200">
+        <v>47.300899999999046</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>21</v>
       </c>
       <c r="B201" t="s">
         <v>28</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>192.33350000000019</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>21</v>
       </c>
       <c r="B202" t="s">
         <v>29</v>
       </c>
-      <c r="C202" t="n">
-        <v>24.80510000000106</v>
-      </c>
-    </row>
-    <row r="203">
+      <c r="C202">
+        <v>24.805100000001062</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>21</v>
       </c>
       <c r="B203" t="s">
         <v>30</v>
       </c>
-      <c r="C203" t="n">
-        <v>570.7938000000013</v>
-      </c>
-    </row>
-    <row r="204">
+      <c r="C203">
+        <v>570.79380000000128</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>21</v>
       </c>
       <c r="B204" t="s">
         <v>31</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>128.65480000000002</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>21</v>
       </c>
       <c r="B205" t="s">
         <v>32</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-283.56700000000274</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>21</v>
       </c>
       <c r="B206" t="s">
         <v>33</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>-120.59279999999853</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>21</v>
       </c>
       <c r="B207" t="s">
         <v>34</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>-7.061200000000099</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>21</v>
       </c>
       <c r="B208" t="s">
         <v>35</v>
       </c>
-      <c r="C208" t="n">
-        <v>44.47389999999996</v>
-      </c>
-    </row>
-    <row r="209">
+      <c r="C208">
+        <v>44.473899999999958</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>21</v>
       </c>
       <c r="B209" t="s">
         <v>36</v>
       </c>
-      <c r="C209" t="n">
-        <v>-508.9542000000001</v>
-      </c>
-    </row>
-    <row r="210">
+      <c r="C209">
+        <v>-508.95420000000013</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>21</v>
       </c>
       <c r="B210" t="s">
         <v>37</v>
       </c>
-      <c r="C210" t="n">
-        <v>-88.1862000000001</v>
-      </c>
-    </row>
-    <row r="211">
+      <c r="C210">
+        <v>-88.186200000000099</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>22</v>
       </c>
       <c r="B211" t="s">
         <v>27</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>105.60890000000995</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>22</v>
       </c>
       <c r="B212" t="s">
         <v>28</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>195.2192999999902</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>22</v>
       </c>
       <c r="B213" t="s">
         <v>29</v>
       </c>
-      <c r="C213" t="n">
-        <v>55.28129999999999</v>
-      </c>
-    </row>
-    <row r="214">
+      <c r="C213">
+        <v>55.281299999999987</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>22</v>
       </c>
       <c r="B214" t="s">
         <v>30</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>723.0300000001007</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>22</v>
       </c>
       <c r="B215" t="s">
         <v>31</v>
       </c>
-      <c r="C215" t="n">
-        <v>86.74940000000015</v>
-      </c>
-    </row>
-    <row r="216">
+      <c r="C215">
+        <v>86.749400000000151</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>22</v>
       </c>
       <c r="B216" t="s">
         <v>32</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>-249.24389999999403</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>22</v>
       </c>
       <c r="B217" t="s">
         <v>33</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>-33.933800000009796</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>22</v>
       </c>
       <c r="B218" t="s">
         <v>34</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>-12.379599999999755</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>22</v>
       </c>
       <c r="B219" t="s">
         <v>35</v>
       </c>
-      <c r="C219" t="n">
-        <v>86.98980000000029</v>
-      </c>
-    </row>
-    <row r="220">
+      <c r="C219">
+        <v>86.989800000000287</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>22</v>
       </c>
       <c r="B220" t="s">
         <v>36</v>
       </c>
-      <c r="C220" t="n">
-        <v>-861.0353000000032</v>
-      </c>
-    </row>
-    <row r="221">
+      <c r="C220">
+        <v>-861.03530000000319</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>22</v>
       </c>
       <c r="B221" t="s">
         <v>37</v>
       </c>
-      <c r="C221" t="n">
-        <v>-96.28530000000956</v>
-      </c>
-    </row>
-    <row r="222">
+      <c r="C221">
+        <v>-96.285300000009556</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>23</v>
       </c>
       <c r="B222" t="s">
         <v>27</v>
       </c>
-      <c r="C222" t="n">
-        <v>88.5595999999905</v>
-      </c>
-    </row>
-    <row r="223">
+      <c r="C222">
+        <v>88.559599999990496</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>23</v>
       </c>
       <c r="B223" t="s">
         <v>28</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>343.91829999990114</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>23</v>
       </c>
       <c r="B224" t="s">
         <v>29</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>22.003100000000018</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>23</v>
       </c>
       <c r="B225" t="s">
         <v>30</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>1714.7886999999973</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>23</v>
       </c>
       <c r="B226" t="s">
         <v>31</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>170.98130000000037</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>23</v>
       </c>
       <c r="B227" t="s">
         <v>32</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>-489.18350000001374</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>23</v>
       </c>
       <c r="B228" t="s">
         <v>33</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>-1.4017000000000053</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>23</v>
       </c>
       <c r="B229" t="s">
         <v>34</v>
       </c>
-      <c r="C229" t="n">
-        <v>-7.553299999990031</v>
-      </c>
-    </row>
-    <row r="230">
+      <c r="C229">
+        <v>-7.5532999999900312</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>23</v>
       </c>
       <c r="B230" t="s">
         <v>35</v>
       </c>
-      <c r="C230" t="n">
-        <v>59.79769999999917</v>
-      </c>
-    </row>
-    <row r="231">
+      <c r="C230">
+        <v>59.797699999999168</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>23</v>
       </c>
       <c r="B231" t="s">
         <v>36</v>
       </c>
-      <c r="C231" t="n">
-        <v>-993.2626000000018</v>
-      </c>
-    </row>
-    <row r="232">
+      <c r="C231">
+        <v>-993.26260000000184</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>23</v>
       </c>
       <c r="B232" t="s">
         <v>37</v>
       </c>
-      <c r="C232" t="n">
-        <v>-908.6481000001004</v>
-      </c>
-    </row>
-    <row r="233">
+      <c r="C232">
+        <v>-908.64810000010038</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>24</v>
       </c>
       <c r="B233" t="s">
         <v>27</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>159.46759999998994</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>24</v>
       </c>
       <c r="B234" t="s">
         <v>28</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>377.24099999989994</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>24</v>
       </c>
       <c r="B235" t="s">
         <v>29</v>
       </c>
-      <c r="C235" t="n">
-        <v>29.94920000000002</v>
-      </c>
-    </row>
-    <row r="236">
+      <c r="C235">
+        <v>29.949200000000019</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>24</v>
       </c>
       <c r="B236" t="s">
         <v>30</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>1537.3178999999982</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>24</v>
       </c>
       <c r="B237" t="s">
         <v>31</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>231.86589999999978</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>24</v>
       </c>
       <c r="B238" t="s">
         <v>32</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>-523.0402000000031</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>24</v>
       </c>
       <c r="B239" t="s">
         <v>33</v>
       </c>
-      <c r="C239" t="n">
-        <v>-119.1798000000017</v>
-      </c>
-    </row>
-    <row r="240">
+      <c r="C239">
+        <v>-119.17980000000171</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>24</v>
       </c>
       <c r="B240" t="s">
         <v>34</v>
       </c>
-      <c r="C240" t="n">
-        <v>-76.04240000010032</v>
-      </c>
-    </row>
-    <row r="241">
+      <c r="C240">
+        <v>-76.042400000100315</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>24</v>
       </c>
       <c r="B241" t="s">
         <v>35</v>
       </c>
-      <c r="C241" t="n">
-        <v>96.68030000000999</v>
-      </c>
-    </row>
-    <row r="242">
+      <c r="C241">
+        <v>96.680300000009993</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>24</v>
       </c>
       <c r="B242" t="s">
         <v>36</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>-1477.9900999999008</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>24</v>
       </c>
       <c r="B243" t="s">
         <v>37</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>-236.26980000000003</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>25</v>
       </c>
       <c r="B244" t="s">
         <v>27</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>17.885399999999663</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>25</v>
       </c>
       <c r="B245" t="s">
         <v>28</v>
       </c>
-      <c r="C245" t="n">
-        <v>61.53540000000976</v>
-      </c>
-    </row>
-    <row r="246">
+      <c r="C245">
+        <v>61.535400000009759</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>25</v>
       </c>
       <c r="B246" t="s">
         <v>29</v>
       </c>
-      <c r="C246" t="n">
-        <v>5.684999999999945</v>
-      </c>
-    </row>
-    <row r="247">
+      <c r="C246">
+        <v>5.6849999999999454</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>25</v>
       </c>
       <c r="B247" t="s">
         <v>30</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>298.53909999999814</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>25</v>
       </c>
       <c r="B248" t="s">
         <v>31</v>
       </c>
-      <c r="C248" t="n">
-        <v>44.65090000000009</v>
-      </c>
-    </row>
-    <row r="249">
+      <c r="C248">
+        <v>44.650900000000092</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>25</v>
       </c>
       <c r="B249" t="s">
         <v>32</v>
       </c>
-      <c r="C249" t="n">
-        <v>-96.05820000010135</v>
-      </c>
-    </row>
-    <row r="250">
+      <c r="C249">
+        <v>-96.058200000101351</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>25</v>
       </c>
       <c r="B250" t="s">
         <v>33</v>
       </c>
-      <c r="C250" t="n">
-        <v>-19.86830000000191</v>
-      </c>
-    </row>
-    <row r="251">
+      <c r="C250">
+        <v>-19.868300000001909</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>25</v>
       </c>
       <c r="B251" t="s">
         <v>34</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>-31.55279999999766</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>25</v>
       </c>
       <c r="B252" t="s">
         <v>35</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>12.04260000000977</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>25</v>
       </c>
       <c r="B253" t="s">
         <v>36</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>-264.19469999999274</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>25</v>
       </c>
       <c r="B254" t="s">
         <v>37</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>-28.66359999999986</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>26</v>
       </c>
       <c r="B255" t="s">
         <v>27</v>
       </c>
-      <c r="C255" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="256">
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>26</v>
       </c>
       <c r="B256" t="s">
         <v>28</v>
       </c>
-      <c r="C256" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="257">
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>26</v>
       </c>
       <c r="B257" t="s">
         <v>29</v>
       </c>
-      <c r="C257" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="258">
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>26</v>
       </c>
       <c r="B258" t="s">
         <v>30</v>
       </c>
-      <c r="C258" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="259">
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>26</v>
       </c>
       <c r="B259" t="s">
         <v>31</v>
       </c>
-      <c r="C259" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="260">
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>26</v>
       </c>
       <c r="B260" t="s">
         <v>32</v>
       </c>
-      <c r="C260" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="261">
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>26</v>
       </c>
       <c r="B261" t="s">
         <v>33</v>
       </c>
-      <c r="C261" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="262">
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>26</v>
       </c>
       <c r="B262" t="s">
         <v>34</v>
       </c>
-      <c r="C262" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="263">
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>26</v>
       </c>
       <c r="B263" t="s">
         <v>35</v>
       </c>
-      <c r="C263" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="264">
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>26</v>
       </c>
       <c r="B264" t="s">
         <v>36</v>
       </c>
-      <c r="C264" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="265">
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>26</v>
       </c>
       <c r="B265" t="s">
         <v>37</v>
       </c>
-      <c r="C265" t="n">
-        <v>0.0</v>
+      <c r="C265">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>-5498.8764000001065</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>-15114.39130000009</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="n">
-        <v>5350.0091999999</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>5350.0091999999004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1489.9335999999894</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="n">
-        <v>922.8284999997013</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>922.82849999970131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="n">
-        <v>-5679.989199999888</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7">
+        <v>-5679.9891999998881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="n">
-        <v>4378.526799999998</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>4378.5267999999978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1498.9165000000096</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>14015.999300000003</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>-1020.3415999999092</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>-342.61720000000923</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>-2251.1389999998937</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="n">
-        <v>-902.6654000001072</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>-902.66540000010718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="n">
-        <v>631.1098999999099</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>631.10989999990989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>224.65389999998865</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>153.19680000001972</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="n">
-        <v>-353.1196</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>-353.11959999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>405.1715999999999</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>60.439300000001026</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2406.6507999999976</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>-114.65640000009807</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>-259.64090000000215</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>-3464.511599999998</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="n">
-        <v>-7342.333099997995</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25">
+        <v>-7342.3330999979953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="n">
-        <v>3624.3130000001</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="C26">
+        <v>3624.3130000001001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="n">
-        <v>865.1013000001012</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="C27">
+        <v>865.10130000010122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>869.1309999999994</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>-2879.478800000099</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1920.5349000000042</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="n">
-        <v>563.6491999999998</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="C31">
+        <v>563.64919999999984</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="n">
-        <v>6050.128300000004</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="C32">
+        <v>6050.1283000000039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="n">
-        <v>-83.34929999998963</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33">
+        <v>-83.349299999989626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-123.18519999999012</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>-2987.4362000001965</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="C36" t="n">
-        <v>-9523.400300000008</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="C36">
+        <v>-9523.4003000000084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2526.444799999902</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
       </c>
-      <c r="C38" t="n">
-        <v>845.5139999999997</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="C38">
+        <v>845.51399999999967</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>184.3060000000105</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>-1595.4809999998897</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>3379.5023999999903</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>414.71030000000997</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
       </c>
-      <c r="C43" t="n">
-        <v>8249.5863000002</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C43">
+        <v>8249.5863000001991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
       </c>
-      <c r="C44" t="n">
-        <v>-1242.7995</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="C44">
+        <v>-1242.7995000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>-250.94949999999915</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="C46" t="n">
-        <v>-7687.790300000204</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="C46">
+        <v>-7687.7903000002043</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
       </c>
-      <c r="C47" t="n">
-        <v>-3330.392399999888</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="C47">
+        <v>-3330.3923999998879</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>43</v>
       </c>
       <c r="B48" t="s">
         <v>28</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1827.42690000008</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>789.3541000000007</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
       </c>
-      <c r="C50" t="n">
-        <v>461.6967999999997</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="C50">
+        <v>461.69679999999971</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>-1714.6845999998122</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>43</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
       </c>
-      <c r="C52" t="n">
-        <v>1213.99970000002</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="C52">
+        <v>1213.9997000000201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
       <c r="B53" t="s">
         <v>29</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>211.66100000000102</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
       <c r="B54" t="s">
         <v>30</v>
       </c>
-      <c r="C54" t="n">
-        <v>8679.428400000106</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="C54">
+        <v>8679.4284000001062</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
       </c>
-      <c r="C55" t="n">
-        <v>-139.3851999998799</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="C55">
+        <v>-139.38519999987989</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>43</v>
       </c>
       <c r="B56" t="s">
         <v>33</v>
       </c>
-      <c r="C56" t="n">
-        <v>-311.317300000004</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="C56">
+        <v>-311.31730000000402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>-1295.904799999993</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>44</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>-2517.088900000992</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
       </c>
-      <c r="C59" t="n">
-        <v>989.0061999999007</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="C59">
+        <v>989.00619999990067</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>44</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="C60" t="n">
-        <v>440.5800999999806</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="C60">
+        <v>440.58009999998058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>44</v>
       </c>
       <c r="B61" t="s">
         <v>35</v>
       </c>
-      <c r="C61" t="n">
-        <v>200.8419999999005</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="C61">
+        <v>200.84199999990051</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>44</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>-1860.871300000199</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>44</v>
       </c>
       <c r="B63" t="s">
         <v>31</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>779.6855999999907</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>44</v>
       </c>
       <c r="B64" t="s">
         <v>29</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>200.54460000001006</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>44</v>
       </c>
       <c r="B65" t="s">
         <v>30</v>
       </c>
-      <c r="C65" t="n">
-        <v>3121.507800000096</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="C65">
+        <v>3121.5078000000958</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>44</v>
       </c>
       <c r="B66" t="s">
         <v>34</v>
       </c>
-      <c r="C66" t="n">
-        <v>-38.815</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66">
+        <v>-38.814999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>44</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>-19.486599999989366</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>